--- a/Fulton Hogan Civil/6103374/matrix_Cremorne Rail Bridge Bearings.xlsx
+++ b/Fulton Hogan Civil/6103374/matrix_Cremorne Rail Bridge Bearings.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fulton Hogan Civil\6103374\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9F489E4C-3FA7-4401-8DEA-8E92A5F2C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC91F9A4-02B6-447E-86FA-5F3997102516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="1110" windowWidth="28905" windowHeight="18450" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
+    <workbookView xWindow="9495" yWindow="825" windowWidth="28905" windowHeight="20010" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">matrix!$C$22:$F$72</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="49">
   <si>
     <t>Matrix Name</t>
   </si>
@@ -40,9 +43,6 @@
     <t>Tag 2</t>
   </si>
   <si>
-    <t>Overall Progress</t>
-  </si>
-  <si>
     <t>Scope</t>
   </si>
   <si>
@@ -53,6 +53,123 @@
   </si>
   <si>
     <t>Columns</t>
+  </si>
+  <si>
+    <t>Occupation 1</t>
+  </si>
+  <si>
+    <t>Occupation 2</t>
+  </si>
+  <si>
+    <t>Occupation 3</t>
+  </si>
+  <si>
+    <t>Project Overview</t>
+  </si>
+  <si>
+    <t>1.1 Check for Correct Documentation</t>
+  </si>
+  <si>
+    <t>Date Completed:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Final Inspection</t>
+  </si>
+  <si>
+    <t>Print Name:</t>
+  </si>
+  <si>
+    <t>Position:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>ITP-01 - Rocker-roller Bearing Replacement</t>
+  </si>
+  <si>
+    <t>Preliminaries</t>
+  </si>
+  <si>
+    <t>1.2 Structural Steel Components</t>
+  </si>
+  <si>
+    <t>1.3 Bearing Plate Epoxy Grout / Mortar or Resin Product Selection</t>
+  </si>
+  <si>
+    <t>1.4 Bearing Plate Pin Epoxy Grout / Mortar or Resin Product Selection</t>
+  </si>
+  <si>
+    <t>Pre-replacement</t>
+  </si>
+  <si>
+    <t>2.1 Indentification of Defective Bearings</t>
+  </si>
+  <si>
+    <t>2.2 Survey of Existing Bearing Plate Heights</t>
+  </si>
+  <si>
+    <t>2.3 Existing Conditions for Temporary Works</t>
+  </si>
+  <si>
+    <t>2.4 Establishment of Temporary Works</t>
+  </si>
+  <si>
+    <t>2.5 Survey of Existing Track Heights</t>
+  </si>
+  <si>
+    <t>Replacement</t>
+  </si>
+  <si>
+    <t>3.1 Jacking Operations - Raising</t>
+  </si>
+  <si>
+    <t>3.2 Survey of Existing Track Heights</t>
+  </si>
+  <si>
+    <t>3.3 Removal of Existing Bearing Componentry</t>
+  </si>
+  <si>
+    <t>3.4 Existing Bearing Plate Pin or Bolt Holes</t>
+  </si>
+  <si>
+    <t>3.5 Placement of New Bearing Componentry</t>
+  </si>
+  <si>
+    <t>3.6 Epoxy Grout / Mortar Mixing</t>
+  </si>
+  <si>
+    <t>3.7 Epoxy Grout / Mortar Testing - Compressive Strength Cubes</t>
+  </si>
+  <si>
+    <t>3.8 Epoxy Grout / Mortar Placement</t>
+  </si>
+  <si>
+    <t>Post-replacement</t>
+  </si>
+  <si>
+    <t>4.1 Removal of Temporary Works</t>
+  </si>
+  <si>
+    <t>4.2 Jacking Operations - Releasing</t>
+  </si>
+  <si>
+    <t>4.3 Survey of Existing Track Heights</t>
+  </si>
+  <si>
+    <t>4.4 Protective Coating Touch-up</t>
+  </si>
+  <si>
+    <t>4.5 Client Inspection</t>
+  </si>
+  <si>
+    <t>4.6 Compressive Strength Test Results</t>
   </si>
 </sst>
 </file>
@@ -195,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +490,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D5E3"/>
       </patternFill>
     </fill>
   </fills>
@@ -536,8 +658,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -913,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16EF041-A184-4873-A38F-D767E07AD295}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,27 +1072,796 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
